--- a/biology/Médecine/Auxiliaire_de_vie_sociale/Auxiliaire_de_vie_sociale.xlsx
+++ b/biology/Médecine/Auxiliaire_de_vie_sociale/Auxiliaire_de_vie_sociale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'auxiliaire de vie est chargé(e) des soins de santé primaires, sociaux, psychologiques, éducatifs et récréatifs des personnes en difficulté dans les activités de la vie.
 </t>
@@ -511,7 +523,9 @@
           <t>Rôle d'auxiliaire de vie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le métier d’auxiliaire de vie comporte de nombreuses missions qui peuvent varier en fonction des besoins de la personne aidée et de son degrés d’autonomie. L’auxiliaire de vie peut par exemple effectuer les soins dont la personne a besoin, les soins quotidiens, les soins d’hygiène et veiller sur la santé de la personne aidée.
 Aider la personne sur l’alimentation également, l’entretien du domicile, l’aide aux démarches administratives.
@@ -545,7 +559,9 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La formation est dispensée dans les Instituts de formation en soins infirmiers publics et privés.
 Les études durent environ deux ans. 
@@ -578,7 +594,9 @@
           <t>Catégories visées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les auxiliaires de vie s'occupent notamment de personnes fragilisées ou sensibles comme les :
 personnes âgées ;
@@ -615,7 +633,9 @@
           <t>Les qualités et compétences requises d’AVS</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L’auxiliaire de vie doit faire preuve de qualités humaines, relationnelles et d’une grande résistance psychologique et physique. Il/Elle doit posséder un grand sens de la communication, Il/Elle doit posséder une grande rigueur, et faire preuve de patience et d’un contrôle de soi et de ses émotions.
 Il/elle doit être à l’écoute de la personne aidée et des aidants, il/elle doit posséder un sens du contact et de l’empathie afin d’établir un lien de confiance avec la personne et son entourage.
@@ -649,7 +669,9 @@
           <t>Avantages du métier</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s’agit d’un métier humain et valorisant. Ce métier consiste à aider les personnes qui sont dans le besoin. Cela peut être résumé par :
 Dimension humaine forte
@@ -657,7 +679,7 @@
 Peu de monotonie
 Polyvalence des tâches, dynamisme
 Possibilité de travailler dans différents services (centre médico social, les associations, hôpitaux publics, les cliniques privées, maison de retraite, aide domicile, etc.)
-En plus de cela, le métier d'auxiliaire de vie est très demandé sur le marché de l’emploi, il est rare qu’un nouveau diplômé soit au chômage. Il sera accueilli à domicile ou dans des organismes spécialisés en matière de service à la personne notamment les associations, les entreprises et les CCAS[2].
+En plus de cela, le métier d'auxiliaire de vie est très demandé sur le marché de l’emploi, il est rare qu’un nouveau diplômé soit au chômage. Il sera accueilli à domicile ou dans des organismes spécialisés en matière de service à la personne notamment les associations, les entreprises et les CCAS.
 </t>
         </is>
       </c>
@@ -686,14 +708,16 @@
           <t>Difficultés rencontrées</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2019, les personnes travaillant comme auxiliaires de vie sont 230 000, dont 87 % à temps partiel, et dont le salaire moyen s’élève à 932 euros par mois. Beaucoup ne bénéficient que d'un demi Smic[3], et doivent s’attendre à une retraite qui ne dépassera pas le minimum vieillesse[4].
-Dans le secteur de l’aide à domicile, le taux d’inaptitude totale, sans possibilité de reclassement, tourne autour de 30 %. Les personnes qui travaillent auprès des personnes âgées ont plus d’accidents du travail et souffrent davantage de maladies professionnelles que les travailleurs du BTP ou de l’industrie[4].
-Béatrice Belle, syndicaliste de la Confédération générale du travail (CGT), souligne que : « Nous avons des amplitudes horaires qui nous font travailler parfois 13 heures par jour, sept jours sur sept, notre employeur peut nous rappeler n’importe quand, même sur nos congés, pour remplacer au pied levé une collègue. Bien sûr, nous ne sommes rémunérées que sur nos interventions, et pas sur les trous entre deux visites. » En outre : « Le turnover est important car les conditions ne sont plus supportables, certaines intervenantes prennent plus de médicaments que les bénéficiaires qu’elles ont en charge ! Ce n’est pas une vie, mais de la survie[4]. »
-Les aides à domiciles sont également confrontés au problème du coût des déplacements. D'après, Loïc Le Noc, responsable de la branche aide à domicile pour la CFDT : « Aujourd’hui, pour faire un kilomètre, on donne 35 centimes à chaque auxiliaire et ça c’est dans la meilleure des trois conventions. Mais le coût de revient du moindre véhicule est supérieur à 40 centimes. Donc elles s’appauvrissent littéralement à chaque kilomètre... À chaque fois que l’on a tenté de négocier une revalorisation de cette indemnité, les services du ministère nous ont dit niet[4]. »
-Il est souvent difficile pour les travailleurs de ce secteur de se mobiliser et le taux de syndicalisation est très faible. Parmi les raisons qui expliquent cette situation figurent les bas salaires, qui rendent difficile pour les aides à domicile d'en consacrer une part au militantisme syndical. D'après une déléguée de la CGT : « Lorsque j'explique à mes collègues que c'est 1 % du salaire mensuel, elles me répondent "tu as vu les salaires qu'on a ?" La plupart sont à temps partiel et n'ont plus rien à la fin du moi. Elles préfèrent consacrer 8 euros à nourrir leur famille plutôt qu'à un timbre syndical. » En outre les aides à domicile travaillent seuls, ce qui ne facilite pas l’investissement dans un mouvement collectif pour défendre des revendications[5]. Enfin, si un salarié quitte son poste, il peut ressentir un sentiment de culpabilité en laissant des personnes dépendantes derrière lui[4].
-La réglementation de ce métier est compliquée car la convention collective applicable à une salariée dépend de la nature juridique de son employeur. Elles ont trois types d'employeur, donc elles ont trois sortes de conventions collectives. Elles peuvent dépendre de la convention collective de la branche de l’aide, de l’accompagnement, des soins et des services à domicile (souvent utilisée par les associations), de celle des entreprises de proximité ou de celle des particuliers employeurs. En 2018, un tiers des aides à domicile dépendent de particuliers, la moitié sont salariées du secteur privé et 14% du secteur public[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2019, les personnes travaillant comme auxiliaires de vie sont 230 000, dont 87 % à temps partiel, et dont le salaire moyen s’élève à 932 euros par mois. Beaucoup ne bénéficient que d'un demi Smic, et doivent s’attendre à une retraite qui ne dépassera pas le minimum vieillesse.
+Dans le secteur de l’aide à domicile, le taux d’inaptitude totale, sans possibilité de reclassement, tourne autour de 30 %. Les personnes qui travaillent auprès des personnes âgées ont plus d’accidents du travail et souffrent davantage de maladies professionnelles que les travailleurs du BTP ou de l’industrie.
+Béatrice Belle, syndicaliste de la Confédération générale du travail (CGT), souligne que : « Nous avons des amplitudes horaires qui nous font travailler parfois 13 heures par jour, sept jours sur sept, notre employeur peut nous rappeler n’importe quand, même sur nos congés, pour remplacer au pied levé une collègue. Bien sûr, nous ne sommes rémunérées que sur nos interventions, et pas sur les trous entre deux visites. » En outre : « Le turnover est important car les conditions ne sont plus supportables, certaines intervenantes prennent plus de médicaments que les bénéficiaires qu’elles ont en charge ! Ce n’est pas une vie, mais de la survie. »
+Les aides à domiciles sont également confrontés au problème du coût des déplacements. D'après, Loïc Le Noc, responsable de la branche aide à domicile pour la CFDT : « Aujourd’hui, pour faire un kilomètre, on donne 35 centimes à chaque auxiliaire et ça c’est dans la meilleure des trois conventions. Mais le coût de revient du moindre véhicule est supérieur à 40 centimes. Donc elles s’appauvrissent littéralement à chaque kilomètre... À chaque fois que l’on a tenté de négocier une revalorisation de cette indemnité, les services du ministère nous ont dit niet. »
+Il est souvent difficile pour les travailleurs de ce secteur de se mobiliser et le taux de syndicalisation est très faible. Parmi les raisons qui expliquent cette situation figurent les bas salaires, qui rendent difficile pour les aides à domicile d'en consacrer une part au militantisme syndical. D'après une déléguée de la CGT : « Lorsque j'explique à mes collègues que c'est 1 % du salaire mensuel, elles me répondent "tu as vu les salaires qu'on a ?" La plupart sont à temps partiel et n'ont plus rien à la fin du moi. Elles préfèrent consacrer 8 euros à nourrir leur famille plutôt qu'à un timbre syndical. » En outre les aides à domicile travaillent seuls, ce qui ne facilite pas l’investissement dans un mouvement collectif pour défendre des revendications. Enfin, si un salarié quitte son poste, il peut ressentir un sentiment de culpabilité en laissant des personnes dépendantes derrière lui.
+La réglementation de ce métier est compliquée car la convention collective applicable à une salariée dépend de la nature juridique de son employeur. Elles ont trois types d'employeur, donc elles ont trois sortes de conventions collectives. Elles peuvent dépendre de la convention collective de la branche de l’aide, de l’accompagnement, des soins et des services à domicile (souvent utilisée par les associations), de celle des entreprises de proximité ou de celle des particuliers employeurs. En 2018, un tiers des aides à domicile dépendent de particuliers, la moitié sont salariées du secteur privé et 14% du secteur public.
 </t>
         </is>
       </c>
@@ -724,15 +748,88 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Secteurs
-Médical
+          <t>Secteurs</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Médical
 Médico-social
-Services à la personne
-Conditions
-Au domicile de particulier
-Travail de nuit
-Structures
-Collectivité territoriale.
+Services à la personne</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Auxiliaire_de_vie_sociale</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Auxiliaire_de_vie_sociale</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Environnement de travail</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Conditions</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Au domicile de particulier
+Travail de nuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Auxiliaire_de_vie_sociale</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Auxiliaire_de_vie_sociale</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Environnement de travail</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Structures</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Collectivité territoriale.
 Entreprise /établissement (publics ou privés).
 Etablissement médical (hôpital, clinique, etc.)
 Foyer / centre d'hébergement.
@@ -744,31 +841,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Auxiliaire_de_vie_sociale</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Auxiliaire_de_vie_sociale</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Auxiliaire_de_vie_sociale</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Auxiliaire_de_vie_sociale</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Perspectives d'évolution</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>A part tout cela, les diplômés dans ce secteur peuvent viser d’autres diplômes avec les équivalences. A titre d’exemples :
 pour devenir ambulancier, les candidats sont dispensés de trois domaines sur huit ;
@@ -781,31 +880,33 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Auxiliaire_de_vie_sociale</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Auxiliaire_de_vie_sociale</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Auxiliaire_de_vie_sociale</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Auxiliaire_de_vie_sociale</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Autres appellations</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Sont également connus sous plusieurs noms dans différents pays comme Belgique, la Tunisie, l'Algérie, le Maroc, Haïti, Côte d´ivoire, Cameroun, Bénin,  le Luxembourg, Autriche, la France, le Québec, et la Suisse.
 Auxiliaire de santé ;
@@ -823,31 +924,33 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Auxiliaire_de_vie_sociale</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Auxiliaire_de_vie_sociale</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Auxiliaire_de_vie_sociale</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Auxiliaire_de_vie_sociale</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>L'Absence de Cyril de Gasperis, 2010.
 Intouchables d'Olivier Nakache et Éric Toledano, 2011.</t>
